--- a/start/beams.xlsx
+++ b/start/beams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иван\AppData\Local\Temp\fz3temp-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60371390-8484-4F1E-8CC9-350601D6A010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576BB683-6DDC-473D-B4E5-8B460D468E38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,10 +487,10 @@
     <t>./beams/AM103_C.png</t>
   </si>
   <si>
-    <t>основной</t>
-  </si>
-  <si>
-    <t>сопряжённый</t>
+    <t>основной виток</t>
+  </si>
+  <si>
+    <t>сопряжённый виток</t>
   </si>
 </sst>
 </file>
@@ -767,7 +767,7 @@
   <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
